--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,25 +5,105 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19590" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="config" sheetId="2" r:id="rId2"/>
-    <sheet name="shop_config" sheetId="3" r:id="rId3"/>
-    <sheet name="item_name" sheetId="4" r:id="rId4"/>
-    <sheet name="act_exchange" sheetId="6" r:id="rId5"/>
+    <sheet name="config_infor" sheetId="9" r:id="rId1"/>
+    <sheet name="Info" sheetId="1" r:id="rId2"/>
+    <sheet name="Info_cjj" sheetId="7" r:id="rId3"/>
+    <sheet name="config" sheetId="2" r:id="rId4"/>
+    <sheet name="config_cjj" sheetId="10" r:id="rId5"/>
+    <sheet name="help_info" sheetId="11" r:id="rId6"/>
+    <sheet name="help_info_cjj" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+  <si>
+    <t>line|</t>
+  </si>
+  <si>
+    <t>condiy_key|权限</t>
+  </si>
+  <si>
+    <t>shop_config|商场加赠配置</t>
+  </si>
+  <si>
+    <t>config|兑换信息</t>
+  </si>
+  <si>
+    <t>change_type|兑换行号</t>
+  </si>
+  <si>
+    <t>item_key|道具名</t>
+  </si>
+  <si>
+    <t>GotoUI|跳转场景</t>
+  </si>
+  <si>
+    <t>help|活动规则</t>
+  </si>
+  <si>
+    <t>beginTime|开始时间</t>
+  </si>
+  <si>
+    <t>endTime|结束时间</t>
+  </si>
+  <si>
+    <t>top_desc|右上角描述</t>
+  </si>
+  <si>
+    <t>btm_desc|底部描述</t>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>prop_hlqd_xx</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+  </si>
+  <si>
+    <t>help_info</t>
+  </si>
+  <si>
+    <t>玩所有游戏有几率得星星，高倍场可得更多！</t>
+  </si>
+  <si>
+    <t>充值商城中每日首次购买金币，必得星星道具！</t>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+  </si>
+  <si>
+    <t>config_cjj</t>
+  </si>
+  <si>
+    <t>Info_cjj</t>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+  </si>
+  <si>
+    <t>help_info_cjj</t>
+  </si>
+  <si>
+    <t>ID|</t>
+  </si>
   <si>
     <t>award_name|名称</t>
   </si>
@@ -40,94 +120,124 @@
     <t>type|类型 实物 1 金币 0</t>
   </si>
   <si>
-    <t>豪华坚果礼盒</t>
-  </si>
-  <si>
-    <t>金龙鱼大米</t>
-  </si>
-  <si>
-    <t>新年日历</t>
+    <t>小太阳取暖器</t>
+  </si>
+  <si>
+    <t>dhhl_swjl_1</t>
+  </si>
+  <si>
+    <t>泰清香大米</t>
+  </si>
+  <si>
+    <t>dhhl_swjl_2</t>
+  </si>
+  <si>
+    <t>纯棉毛巾1条</t>
+  </si>
+  <si>
+    <t>dhhl_swjl_3</t>
   </si>
   <si>
     <t>2000万金币</t>
   </si>
   <si>
+    <t>pay_icon_gold9</t>
+  </si>
+  <si>
+    <t>高级核弹</t>
+  </si>
+  <si>
+    <t>dhhl_icon_gjhd</t>
+  </si>
+  <si>
+    <t>中级核弹</t>
+  </si>
+  <si>
+    <t>dhhl_icon_zjhd</t>
+  </si>
+  <si>
+    <t>200万金币</t>
+  </si>
+  <si>
+    <t>pay_icon_gold7</t>
+  </si>
+  <si>
+    <t>dhhl_icon_cjhd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hhl_swjl_1</t>
+    </r>
+  </si>
+  <si>
     <t>1000万金币</t>
   </si>
   <si>
-    <t>500万金币</t>
-  </si>
-  <si>
-    <t>200万金币</t>
-  </si>
-  <si>
-    <t>100万金币</t>
+    <t>pay_icon_gold8</t>
+  </si>
+  <si>
+    <t>dhhl_icon_jc</t>
+  </si>
+  <si>
+    <t>dhhl_icon_yc</t>
   </si>
   <si>
     <t xml:space="preserve">task_id |任务ID </t>
   </si>
   <si>
+    <t>shop_id|商品ID</t>
+  </si>
+  <si>
     <t>icon_txt|商城显示 赠送数量</t>
   </si>
   <si>
     <t>备注：此处商场的加赠第一个没有，若要添加，则直接添加即可</t>
   </si>
   <si>
-    <t>id|</t>
-  </si>
-  <si>
-    <t>shop_id</t>
-  </si>
-  <si>
-    <t>gift_id|任务ID</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>item_key|兑换道具</t>
-  </si>
-  <si>
-    <t>prop_yd_jyb</t>
-  </si>
-  <si>
-    <t>ID|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ydhl_swjl_szss</t>
-  </si>
-  <si>
-    <t>hjhhl_jswjl_jlydm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ydhl_swjl_xnrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold9</t>
-  </si>
-  <si>
-    <t>pay_icon_gold8</t>
-  </si>
-  <si>
-    <t>pay_icon_gold7</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>line|1是normal，2是cjj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>desc|规则信息</t>
+  </si>
+  <si>
+    <t>"1.活动时间：1月5日8:00-1月11日23:59:59。","2.活动期间，玩所有游戏都有几率获得星星道具，星星可用于兑换奖励，高倍场可获得更多星星哦！","3.活动结束后，所有星星将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《鲸鱼初纪元》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
+  </si>
+  <si>
+    <t>初级核弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1.活动时间：1月5日8:00-1月11日23:59:59。","2.活动期间，玩所有游戏都有几率获得星星道具，星星可用于兑换奖励，高倍场可获得更多星星哦！","3.活动结束后，所有星星将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《彩云新世界》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小金锤*5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小银锤*10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,23 +246,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -174,27 +274,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,224 +607,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="34.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="25.125" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
+    <col min="11" max="11" width="40.375" customWidth="1"/>
+    <col min="12" max="12" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1">
-        <v>15000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>1609804800</v>
+      </c>
+      <c r="J2">
+        <v>1610380799</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1">
-        <v>8000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1">
-        <v>24000</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1">
-        <v>12000</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="I3">
+        <v>1609804800</v>
+      </c>
+      <c r="J3">
+        <v>1610380799</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D18" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="71.375" customWidth="1"/>
-    <col min="2" max="2" width="41.5" customWidth="1"/>
-    <col min="3" max="3" width="54.25" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -721,117 +941,524 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="67.375" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="54.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="54.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1000159</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1000160</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1000161</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>1000162</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>1000163</v>
+      </c>
+      <c r="B6" s="2">
+        <v>111</v>
+      </c>
+      <c r="C6" s="2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>1000164</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>1000165</v>
+      </c>
+      <c r="B8" s="2">
+        <v>108</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>1000166</v>
+      </c>
+      <c r="B9" s="2">
+        <v>110</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7500</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1000159</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1000160</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1000161</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>1000162</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>1000163</v>
+      </c>
+      <c r="B6" s="2">
+        <v>111</v>
+      </c>
+      <c r="C6" s="2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>1000164</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>1000165</v>
+      </c>
+      <c r="B8" s="2">
+        <v>108</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>1000166</v>
+      </c>
+      <c r="B9" s="2">
+        <v>110</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="131.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14</v>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -839,17 +1466,6 @@
   <rangeList sheetStid="4" master=""/>
   <rangeList sheetStid="6" master=""/>
 </allowEditUser>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -864,75 +1480,58 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
+  <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
+  <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
+  <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
     <sheet name="Info" sheetId="1" r:id="rId2"/>
     <sheet name="Info_cjj" sheetId="7" r:id="rId3"/>
-    <sheet name="config" sheetId="2" r:id="rId4"/>
-    <sheet name="config_cjj" sheetId="10" r:id="rId5"/>
+    <sheet name="config_cjj" sheetId="10" r:id="rId4"/>
+    <sheet name="config" sheetId="2" r:id="rId5"/>
     <sheet name="help_info" sheetId="11" r:id="rId6"/>
     <sheet name="help_info_cjj" sheetId="12" r:id="rId7"/>
   </sheets>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>line|</t>
   </si>
@@ -39,9 +39,6 @@
     <t>config|兑换信息</t>
   </si>
   <si>
-    <t>change_type|兑换行号</t>
-  </si>
-  <si>
     <t>item_key|道具名</t>
   </si>
   <si>
@@ -72,21 +69,12 @@
     <t>Info</t>
   </si>
   <si>
-    <t>prop_hlqd_xx</t>
-  </si>
-  <si>
     <t>"game_Fishing3DHall",</t>
   </si>
   <si>
     <t>help_info</t>
   </si>
   <si>
-    <t>玩所有游戏有几率得星星，高倍场可得更多！</t>
-  </si>
-  <si>
-    <t>充值商城中每日首次购买金币，必得星星道具！</t>
-  </si>
-  <si>
     <t>cpl_cjj</t>
   </si>
   <si>
@@ -120,21 +108,12 @@
     <t>type|类型 实物 1 金币 0</t>
   </si>
   <si>
-    <t>小太阳取暖器</t>
-  </si>
-  <si>
     <t>dhhl_swjl_1</t>
   </si>
   <si>
-    <t>泰清香大米</t>
-  </si>
-  <si>
     <t>dhhl_swjl_2</t>
   </si>
   <si>
-    <t>纯棉毛巾1条</t>
-  </si>
-  <si>
     <t>dhhl_swjl_3</t>
   </si>
   <si>
@@ -144,13 +123,7 @@
     <t>pay_icon_gold9</t>
   </si>
   <si>
-    <t>高级核弹</t>
-  </si>
-  <si>
     <t>dhhl_icon_gjhd</t>
-  </si>
-  <si>
-    <t>中级核弹</t>
   </si>
   <si>
     <t>dhhl_icon_zjhd</t>
@@ -170,6 +143,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -180,6 +154,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -214,22 +189,167 @@
     <t>desc|规则信息</t>
   </si>
   <si>
-    <t>"1.活动时间：1月5日8:00-1月11日23:59:59。","2.活动期间，玩所有游戏都有几率获得星星道具，星星可用于兑换奖励，高倍场可获得更多星星哦！","3.活动结束后，所有星星将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《鲸鱼初纪元》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
-  </si>
-  <si>
-    <t>初级核弹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1.活动时间：1月5日8:00-1月11日23:59:59。","2.活动期间，玩所有游戏都有几率获得星星道具，星星可用于兑换奖励，高倍场可获得更多星星哦！","3.活动结束后，所有星星将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《彩云新世界》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小金锤*5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小银锤*10</t>
+    <t>change_type|兑换行号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城中每日首次购买金币，必得宝箱礼盒！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼油4L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼大米</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰子汁6瓶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1.活动时间：1月12日8:00-1月18日23:59:59。","2.活动期间，玩所有游戏都有几率获得礼盒道具，礼盒可用于兑换奖励，高倍场可获得更多礼盒哦！","3.活动结束后，所有礼盒将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《鲸鱼初纪元》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
+  </si>
+  <si>
+    <t>"1.活动时间：1月12日8:00-1月18日23:59:59。","2.活动期间，玩所有游戏都有几率获得礼盒道具，礼盒可用于兑换奖励，高倍场可获得更多礼盒哦！","3.活动结束后，所有礼盒将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《彩云新世界》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有游戏有几率得礼盒，玩高倍场可得更多礼盒！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城中每日首次购买金币，必得宝箱礼盒！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有游戏有几率得礼盒，玩高倍场可得更多礼盒！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹*1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>中级核弹*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>初级核弹*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小金锤*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小银锤*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>85</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,86</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,87</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,88</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,89</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110,10045</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108,10044</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111,10189</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +357,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,21 +368,55 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -280,7 +434,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,6 +454,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,136 +787,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="25.125" customWidth="1"/>
-    <col min="9" max="9" width="19.25" customWidth="1"/>
-    <col min="10" max="10" width="18.125" customWidth="1"/>
-    <col min="11" max="11" width="40.375" customWidth="1"/>
-    <col min="12" max="12" width="44.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="19.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="25.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="44.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" s="2">
+        <v>1610409600</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1610985599</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2">
-        <v>1609804800</v>
-      </c>
-      <c r="J2">
-        <v>1610380799</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
+      <c r="E3" s="2">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3">
-        <v>1609804800</v>
-      </c>
-      <c r="J3">
-        <v>1610380799</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
+      <c r="I3" s="2">
+        <v>1610409600</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1610985599</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +931,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D19"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -767,23 +946,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -791,16 +970,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3">
         <v>15000</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -810,17 +989,17 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
+      <c r="B3" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3">
         <v>8000</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>33</v>
+      <c r="E3" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -830,17 +1009,17 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>35</v>
+      <c r="B4" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3">
         <v>5000</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>35</v>
+      <c r="E4" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -851,10 +1030,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3">
         <v>24000</v>
@@ -868,10 +1047,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3">
         <v>12000</v>
@@ -884,11 +1063,11 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>41</v>
+      <c r="B7" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3">
         <v>6000</v>
@@ -902,10 +1081,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3">
         <v>2400</v>
@@ -918,11 +1097,11 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>57</v>
+      <c r="B9" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3">
         <v>1200</v>
@@ -935,7 +1114,7 @@
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -943,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -959,23 +1138,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -983,16 +1162,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3">
         <v>15000</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -1002,17 +1181,17 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
+      <c r="B3" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3">
         <v>8000</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>33</v>
+      <c r="E3" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -1022,17 +1201,17 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>35</v>
+      <c r="B4" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3">
         <v>5000</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>35</v>
+      <c r="E4" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -1043,10 +1222,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3">
         <v>24000</v>
@@ -1060,10 +1239,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3">
         <v>12000</v>
@@ -1076,11 +1255,11 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>59</v>
+      <c r="B7" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3">
         <v>6000</v>
@@ -1094,10 +1273,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3">
         <v>2400</v>
@@ -1110,11 +1289,11 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>60</v>
+      <c r="B9" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3">
         <v>1200</v>
@@ -1131,10 +1310,139 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>1000190</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1000191</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>1000192</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>1000193</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>1000194</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>1000195</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>1000196</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>1000197</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7490</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1146,105 +1454,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
+      <c r="A1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>1000159</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
+      <c r="A2" s="10">
+        <v>1000190</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1000160</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
+      <c r="A3" s="10">
+        <v>1000191</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="C3" s="2">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>1000161</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4</v>
+      <c r="A4" s="10">
+        <v>1000192</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="C4" s="2">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1000162</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5</v>
+      <c r="A5" s="10">
+        <v>1000193</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C5" s="2">
         <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>1000163</v>
-      </c>
-      <c r="B6" s="2">
-        <v>111</v>
+      <c r="A6" s="10">
+        <v>1000194</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="C6" s="2">
         <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>1000164</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
+      <c r="A7" s="10">
+        <v>1000195</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C7" s="2">
         <v>1490</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>1000165</v>
-      </c>
-      <c r="B8" s="2">
-        <v>108</v>
+      <c r="A8" s="10">
+        <v>1000196</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="C8" s="2">
         <v>2990</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>1000166</v>
-      </c>
-      <c r="B9" s="2">
-        <v>110</v>
+      <c r="A9" s="10">
+        <v>1000197</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="C9" s="2">
-        <v>7500</v>
+        <v>7490</v>
       </c>
     </row>
   </sheetData>
@@ -1252,129 +1560,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>1000159</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1000160</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>1000161</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1000162</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>1000163</v>
-      </c>
-      <c r="B6" s="2">
-        <v>111</v>
-      </c>
-      <c r="C6" s="2">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>1000164</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>1000165</v>
-      </c>
-      <c r="B8" s="2">
-        <v>108</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>1000166</v>
-      </c>
-      <c r="B9" s="2">
-        <v>110</v>
-      </c>
-      <c r="C9" s="2">
-        <v>7500</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1392,11 +1577,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>55</v>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
@@ -1404,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1417,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1427,19 +1612,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>55</v>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>58</v>
+      <c r="B2" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1449,26 +1634,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1477,6 +1648,16 @@
   <pixelatorList sheetStid="6"/>
   <pixelatorList sheetStid="7"/>
 </pixelators>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1491,9 +1672,13 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1501,19 +1686,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1525,7 +1710,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>line|</t>
   </si>
@@ -201,42 +201,130 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>充值商城中每日首次购买金币，必得宝箱礼盒！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金龙鱼油4L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金龙鱼大米</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>椰子汁6瓶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1.活动时间：1月12日8:00-1月18日23:59:59。","2.活动期间，玩所有游戏都有几率获得礼盒道具，礼盒可用于兑换奖励，高倍场可获得更多礼盒哦！","3.活动结束后，所有礼盒将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《鲸鱼初纪元》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
-  </si>
-  <si>
-    <t>"1.活动时间：1月12日8:00-1月18日23:59:59。","2.活动期间，玩所有游戏都有几率获得礼盒道具，礼盒可用于兑换奖励，高倍场可获得更多礼盒哦！","3.活动结束后，所有礼盒将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《彩云新世界》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有游戏有几率得礼盒，玩高倍场可得更多礼盒！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值商城中每日首次购买金币，必得宝箱礼盒！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有游戏有几率得礼盒，玩高倍场可得更多礼盒！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹*1</t>
+    <t>所有游戏有几率得灵珠，玩高倍场可得更多灵珠！</t>
+  </si>
+  <si>
+    <t>充值商城中每日首次购买金币，必得宝箱灵珠！</t>
+  </si>
+  <si>
+    <t>坚果大礼包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档电热水袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生酥1斤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档电热水袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生酥1斤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1.活动时间：1月19日8:00-1月25日23:59:59。","2.活动期间，玩所有游戏都有几率获得灵珠道具，灵珠可用于兑换奖励，高倍场可获得更多灵珠哦！","3.活动结束后，所有灵珠将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《彩云新世界》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
+  </si>
+  <si>
+    <t>"1.活动时间：1月19日8:00-1月25日23:59:59。","2.活动期间，玩所有游戏都有几率获得灵珠道具，灵珠可用于兑换奖励，高倍场可获得更多灵珠哦！","3.活动结束后，所有灵珠将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《鲸鱼初纪元》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
+  </si>
+  <si>
+    <r>
+      <t>2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>85</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,86</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,87</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,88</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111,10189</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,89</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108,10044</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110,10045</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>85</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,87</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111,10189</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,89</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108,10044</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>高级核弹*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -307,57 +395,12 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <t>2,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>85</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,86</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,87</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,88</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,89</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110,10045</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>108,10044</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111,10189</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,12 +420,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -408,13 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,12 +471,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,9 +484,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -462,22 +493,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,137 +815,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="19.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="25.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="44.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="25.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1610409600</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1610985599</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1611014400</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1611590399</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1610409600</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1610985599</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>57</v>
+      <c r="L3" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -930,183 +958,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>15000</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>8000</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="3">
+        <v>53</v>
+      </c>
+      <c r="F3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>5000</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="3">
+        <v>54</v>
+      </c>
+      <c r="F4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>24000</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>12000</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>6000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1123,182 +1151,182 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>15000</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>8000</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="3">
+        <v>53</v>
+      </c>
+      <c r="F3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>5000</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="3">
+        <v>54</v>
+      </c>
+      <c r="F4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>24000</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>12000</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>6000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1313,7 +1341,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1324,116 +1352,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
-        <v>1000190</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="2">
+        <v>1000217</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1000218</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1000219</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>1000220</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>1000221</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>1000222</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
-        <v>1000191</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="C7" s="1">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>1000223</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
-        <v>1000192</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="C8" s="1">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>1000224</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
-        <v>1000193</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="2">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
-        <v>1000194</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="2">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
-        <v>1000195</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <v>1000196</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
-        <v>1000197</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>7490</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1441,117 +1468,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="54.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="54.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="54.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
-        <v>1000190</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="2">
+        <v>1000217</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
-        <v>1000191</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" s="2">
+        <v>1000218</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
-        <v>1000192</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="2">
+        <v>1000219</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>1000220</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>1000221</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>1000222</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>1000223</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>1000224</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
-        <v>1000193</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="2">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
-        <v>1000194</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="2">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
-        <v>1000195</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <v>1000196</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
-        <v>1000197</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>7490</v>
       </c>
     </row>
@@ -1568,7 +1595,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1577,10 +1604,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1588,8 +1615,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
+      <c r="B2" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1612,10 +1639,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1623,8 +1650,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>55</v>
+      <c r="B2" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1634,12 +1661,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1650,7 +1692,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1660,63 +1702,48 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>line|</t>
   </si>
@@ -87,15 +87,6 @@
   </si>
   <si>
     <t>type|类型 实物 1 金币 0</t>
-  </si>
-  <si>
-    <t>太阳取暖器</t>
-  </si>
-  <si>
-    <t>高档暖手宝</t>
-  </si>
-  <si>
-    <t>羊毛围巾</t>
   </si>
   <si>
     <t>2000万金币</t>
@@ -188,11 +179,39 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>9,10,11,12,13,14,15,16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold9</t>
+    <t>新年礼盒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>核桃花生奶16盒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼大米5斤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年礼盒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>核桃花生奶16盒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼大米5斤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年礼盒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼大米5斤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年礼盒</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -224,15 +243,53 @@
     <t>icon_yc</t>
   </si>
   <si>
-    <t>act_001_hhl_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>line|</t>
+    <t>1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_002_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹*1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>中级核弹*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>初级核弹*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -270,54 +327,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>高级核弹*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>中级核弹*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>初级核弹*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
+    <t>line</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10,11,12,13,14,15,16</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +369,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +400,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -402,7 +422,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -430,17 +450,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,11 +465,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -761,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -786,10 +812,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -821,16 +847,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -842,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="J2" s="6">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="K2" s="6">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -856,16 +882,16 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>58</v>
+        <v>33</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -877,10 +903,10 @@
         <v>15</v>
       </c>
       <c r="J3" s="6">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="K3" s="6">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
   </sheetData>
@@ -893,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -910,8 +936,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>60</v>
+      <c r="A1" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>16</v>
@@ -939,19 +965,19 @@
       <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>22</v>
+      <c r="C2" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="10">
+        <v>15000</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="11">
-        <v>15000</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>1</v>
       </c>
     </row>
@@ -962,19 +988,19 @@
       <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="C3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="10">
         <v>8000</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="F3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="10">
         <v>1</v>
       </c>
     </row>
@@ -985,19 +1011,19 @@
       <c r="B4" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="C4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="10">
         <v>5000</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="F4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1008,17 +1034,17 @@
       <c r="B5" s="8">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10">
         <v>24000</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1029,17 +1055,17 @@
       <c r="B6" s="8">
         <v>5</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="C6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="10">
         <v>12000</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1051,16 +1077,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="11">
+        <v>66</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="10">
         <v>6000</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1071,17 +1097,17 @@
       <c r="B8" s="8">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="10">
         <v>2400</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1093,16 +1119,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="11">
+        <v>67</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="10">
         <v>1200</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1110,22 +1136,22 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="C10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="13">
         <v>15000</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="F10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="13">
         <v>1</v>
       </c>
     </row>
@@ -1133,22 +1159,22 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="11">
         <v>2</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="C11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="13">
         <v>8000</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="14">
+      <c r="F11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="13">
         <v>1</v>
       </c>
     </row>
@@ -1156,22 +1182,22 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="11">
         <v>3</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="C12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="13">
         <v>5000</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="F12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="13">
         <v>1</v>
       </c>
     </row>
@@ -1179,20 +1205,20 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="11">
         <v>4</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="C13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="13">
         <v>24000</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1200,20 +1226,20 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="11">
         <v>5</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="C14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="13">
         <v>12000</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1221,20 +1247,20 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="11">
         <v>6</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="C15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="13">
         <v>6000</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1242,20 +1268,20 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="11">
         <v>7</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="C16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="13">
         <v>2400</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1263,20 +1289,20 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="11">
         <v>8</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="C17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="13">
         <v>1200</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1293,7 +1319,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1306,19 +1332,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1326,10 +1352,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>1000226</v>
+        <v>1000258</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -1340,10 +1366,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>1000227</v>
+        <v>1000259</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -1354,10 +1380,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>1000228</v>
+        <v>1000260</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -1368,10 +1394,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>1000229</v>
+        <v>1000261</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>290</v>
@@ -1382,10 +1408,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>1000230</v>
+        <v>1000262</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>590</v>
@@ -1396,10 +1422,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>1000231</v>
+        <v>1000263</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1">
         <v>1490</v>
@@ -1410,10 +1436,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>1000232</v>
+        <v>1000264</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1">
         <v>2990</v>
@@ -1424,10 +1450,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>1000233</v>
+        <v>1000265</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <v>7490</v>
@@ -1482,26 +1508,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1511,7 +1523,7 @@
 </settings>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1522,7 +1534,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1533,38 +1545,52 @@
 </sheetInterline>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>line|</t>
   </si>
@@ -53,9 +53,6 @@
     <t>cpl_notcjj</t>
   </si>
   <si>
-    <t>prop_fish_drop_act_0</t>
-  </si>
-  <si>
     <t>"game_Fishing3DHall",</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>help_info_cjj</t>
-  </si>
-  <si>
-    <t>ID|</t>
   </si>
   <si>
     <t>award_name|名称</t>
@@ -179,14 +173,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>核桃花生奶16盒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>新年礼盒</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>核桃花生奶16盒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>金龙鱼大米5斤</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -195,26 +189,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>核桃花生奶16盒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金龙鱼大米5斤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年礼盒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金龙鱼大米5斤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年礼盒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>swjl_1</t>
   </si>
   <si>
@@ -248,10 +222,6 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_002_hhl_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -332,6 +302,51 @@
   </si>
   <si>
     <t>9,10,11,12,13,14,15,16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>prop_fish_drop_act_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐福记礼盒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>琥珀核桃4罐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档纯棉浴巾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐福记礼盒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>琥珀核桃4罐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档纯棉浴巾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_003_hhl_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,19 +405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +431,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,38 +456,35 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -787,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -812,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -847,31 +853,31 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1">
-        <v>32</v>
-      </c>
-      <c r="F2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" s="6">
-        <v>1612224000</v>
+        <v>1614038400</v>
       </c>
       <c r="K2" s="6">
-        <v>1612799999</v>
+        <v>1614614399</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -879,34 +885,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="1">
-        <v>33</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J3" s="6">
-        <v>1612224000</v>
+        <v>1614038400</v>
       </c>
       <c r="K3" s="6">
-        <v>1612799999</v>
+        <v>1614614399</v>
       </c>
     </row>
   </sheetData>
@@ -917,392 +923,340 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="18.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21" style="6" customWidth="1"/>
-    <col min="5" max="5" width="34.375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23" style="6" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="2" max="2" width="28.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="15">
+        <v>15000</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="10">
-        <v>15000</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <v>2</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="B3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="15">
         <v>8000</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="E3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="B4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="15">
         <v>5000</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="E4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="B5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="15">
         <v>24000</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="10">
+      <c r="C6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="15">
         <v>12000</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
-        <v>6</v>
+      <c r="B7" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="10">
+        <v>51</v>
+      </c>
+      <c r="D7" s="15">
         <v>6000</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="B8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="15">
         <v>2400</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
-        <v>8</v>
+      <c r="B9" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="10">
+        <v>52</v>
+      </c>
+      <c r="D9" s="15">
         <v>1200</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="9">
+        <v>15000</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="13">
-        <v>15000</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="D11" s="9">
         <v>8000</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="E11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
-        <v>3</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D12" s="9">
         <v>5000</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="E12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
-        <v>4</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="9">
         <v>24000</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
-        <v>5</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="B14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="9">
         <v>12000</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
-        <v>6</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="13">
+      <c r="C15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="9">
         <v>6000</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
-        <v>7</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="9">
         <v>2400</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
-        <v>8</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="13">
+      <c r="C17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="9">
         <v>1200</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1319,7 +1273,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1332,19 +1286,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1352,10 +1306,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>1000258</v>
+        <v>1000291</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -1366,10 +1320,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>1000259</v>
+        <v>1000292</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -1380,10 +1334,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>1000260</v>
+        <v>1000293</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -1394,10 +1348,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>1000261</v>
+        <v>1000294</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1">
         <v>290</v>
@@ -1408,10 +1362,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>1000262</v>
+        <v>1000295</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1">
         <v>590</v>
@@ -1422,10 +1376,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>1000263</v>
+        <v>1000296</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1">
         <v>1490</v>
@@ -1436,10 +1390,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>1000264</v>
+        <v>1000297</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1">
         <v>2990</v>
@@ -1450,10 +1404,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>1000265</v>
+        <v>1000298</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1">
         <v>7490</v>
@@ -1508,12 +1462,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1523,7 +1471,38 @@
 </settings>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1534,63 +1513,38 @@
 </pixelators>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>line|</t>
   </si>
@@ -170,22 +170,6 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>核桃花生奶16盒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年礼盒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金龙鱼大米5斤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年礼盒</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -853,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>41</v>
@@ -862,10 +846,10 @@
         <v>39</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -888,19 +872,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1">
         <v>40</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
@@ -926,7 +910,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -942,7 +926,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
@@ -965,16 +949,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" s="15">
         <v>15000</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F2" s="15">
         <v>1</v>
@@ -985,16 +969,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="15">
         <v>8000</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F3" s="15">
         <v>1</v>
@@ -1005,16 +989,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D4" s="15">
         <v>5000</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F4" s="15">
         <v>1</v>
@@ -1043,10 +1027,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D6" s="15">
         <v>12000</v>
@@ -1061,10 +1045,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" s="15">
         <v>6000</v>
@@ -1097,10 +1081,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" s="15">
         <v>1200</v>
@@ -1115,16 +1099,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9">
         <v>15000</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F10" s="9">
         <v>1</v>
@@ -1135,16 +1119,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="9">
         <v>8000</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F11" s="9">
         <v>1</v>
@@ -1155,16 +1139,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D12" s="9">
         <v>5000</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F12" s="9">
         <v>1</v>
@@ -1211,10 +1195,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D15" s="9">
         <v>6000</v>
@@ -1247,10 +1231,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" s="9">
         <v>1200</v>
@@ -1462,36 +1446,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1500,6 +1454,36 @@
   <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1514,13 +1498,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1532,13 +1516,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>line|</t>
   </si>
@@ -289,48 +289,59 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>prop_fish_drop_act_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐福记礼盒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>琥珀核桃4罐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高档纯棉浴巾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐福记礼盒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>琥珀核桃4罐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高档纯棉浴巾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_003_hhl_</t>
+    <t>高档保温杯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兽玩偶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端皂3块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档保温杯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端皂3块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档保温杯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端皂3块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档保温杯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兽玩偶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端皂3块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_004_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_004_hhl_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,13 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +420,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,35 +445,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -777,21 +767,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="25.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="24.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -802,31 +793,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -836,32 +827,32 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="11">
+        <v>41</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1614643200</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1615219199</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1">
-        <v>39</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1614038400</v>
-      </c>
-      <c r="K2" s="6">
-        <v>1614614399</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -871,32 +862,32 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="11">
+        <v>42</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1614643200</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1615219199</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="1">
-        <v>40</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J3" s="6">
-        <v>1614038400</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1614614399</v>
       </c>
     </row>
   </sheetData>
@@ -909,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -925,7 +916,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -948,19 +939,19 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="11">
         <v>15000</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="E2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="11">
         <v>1</v>
       </c>
     </row>
@@ -968,19 +959,19 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="11">
         <v>8000</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="E3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="11">
         <v>1</v>
       </c>
     </row>
@@ -988,19 +979,19 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <v>5000</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="E4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1008,17 +999,17 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>24000</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1026,17 +1017,17 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <v>12000</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1044,17 +1035,17 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <v>6000</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1062,17 +1053,17 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <v>2400</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1080,17 +1071,17 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>1200</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1098,19 +1089,19 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <v>15000</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1118,19 +1109,19 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="11">
         <v>8000</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="E11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1138,19 +1129,19 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="11">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="9">
-        <v>5000</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="F12" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1158,17 +1149,17 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="11">
         <v>24000</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1176,17 +1167,17 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="11">
         <v>12000</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1194,17 +1185,17 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="11">
         <v>6000</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1212,17 +1203,17 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="11">
         <v>2400</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1230,17 +1221,17 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="11">
         <v>1200</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1256,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1290,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>1000291</v>
+        <v>1000324</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>31</v>
@@ -1304,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>1000292</v>
+        <v>1000325</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>32</v>
@@ -1318,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>1000293</v>
+        <v>1000326</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>33</v>
@@ -1332,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>1000294</v>
+        <v>1000327</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>34</v>
@@ -1346,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>1000295</v>
+        <v>1000328</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>35</v>
@@ -1360,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>1000296</v>
+        <v>1000329</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>36</v>
@@ -1374,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>1000297</v>
+        <v>1000330</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>37</v>
@@ -1388,7 +1379,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>1000298</v>
+        <v>1000331</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>38</v>
@@ -1446,6 +1437,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1456,37 +1467,7 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1497,38 +1478,48 @@
 </pixelators>
 </file>
 
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>line|</t>
   </si>
@@ -81,24 +81,6 @@
   </si>
   <si>
     <t>type|类型 实物 1 金币 0</t>
-  </si>
-  <si>
-    <t>2000万金币</t>
-  </si>
-  <si>
-    <t>pay_icon_gold9</t>
-  </si>
-  <si>
-    <t>200万金币</t>
-  </si>
-  <si>
-    <t>pay_icon_gold7</t>
-  </si>
-  <si>
-    <t>1000万金币</t>
-  </si>
-  <si>
-    <t>pay_icon_gold8</t>
   </si>
   <si>
     <t>ID</t>
@@ -189,9 +171,6 @@
     <t>icon_gjhd</t>
   </si>
   <si>
-    <t>icon_zjhd</t>
-  </si>
-  <si>
     <t>icon_cjhd</t>
   </si>
   <si>
@@ -201,32 +180,7 @@
     <t>icon_yc</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>高级核弹*1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>中级核弹*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -248,23 +202,6 @@
   </si>
   <si>
     <r>
-      <t>小金锤*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>小银锤*</t>
     </r>
     <r>
@@ -289,46 +226,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>高档保温杯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>独角兽玩偶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高端皂3块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高档保温杯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高端皂3块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高档保温杯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高端皂3块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高档保温杯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>独角兽玩偶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高端皂3块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_fish_drop_act_0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -337,19 +234,94 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>act_004_hhl_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_004_hhl_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>act_005_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_005_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为荣耀手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>家用吸尘器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米蓝牙耳机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>500万金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药薄片*10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小金锤*10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>500万金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pay_icon_gold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange_V5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange_V5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>swjl_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>swjl_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200万鱼币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200万小游戏币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yb_5</t>
+  </si>
+  <si>
+    <t>ty_icon_yxb_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +345,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -420,7 +399,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,6 +438,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -767,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -808,10 +796,10 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
@@ -828,25 +816,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="11">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F2" s="11">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="G2" s="11">
-        <v>1615219199</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>51</v>
+        <v>1615823999</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
@@ -863,25 +848,22 @@
         <v>12</v>
       </c>
       <c r="C3" s="11">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F3" s="11">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="G3" s="11">
-        <v>1615219199</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>1615823999</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -898,10 +880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -912,12 +894,13 @@
     <col min="4" max="4" width="34.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="23" style="6" customWidth="1"/>
     <col min="6" max="6" width="24.125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="7" max="7" width="30.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
@@ -934,306 +917,317 @@
       <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="11">
-        <v>15000</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>67</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D2" s="13">
+        <v>866600</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="11">
-        <v>8000</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>68</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D3" s="13">
+        <v>96666</v>
+      </c>
+      <c r="E3" s="9"/>
       <c r="F3" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="11">
-        <v>5000</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>69</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D4" s="13">
+        <v>58888</v>
+      </c>
+      <c r="E4" s="9"/>
       <c r="F4" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>20</v>
+      <c r="B5" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="11">
-        <v>24000</v>
+        <v>40</v>
+      </c>
+      <c r="D5" s="13">
+        <v>36000</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="11">
-        <v>12000</v>
+      <c r="B6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="10">
+        <v>18000</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="11">
-        <v>6000</v>
+        <v>65</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="10">
+        <v>7200</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="11">
-        <v>2400</v>
+      <c r="B8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="10">
+        <v>8000</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1200</v>
+        <v>41</v>
+      </c>
+      <c r="D9" s="13">
+        <v>3666</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="11">
-        <v>15000</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>65</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D10" s="13">
+        <v>866600</v>
+      </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="11">
-        <v>8000</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>61</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="13">
+        <v>96666</v>
+      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="11">
-        <v>5000</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>66</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D12" s="13">
+        <v>58888</v>
+      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="11">
-        <v>24000</v>
+      <c r="B13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="13">
+        <v>36000</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="11">
-        <v>12000</v>
+      <c r="B14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="10">
+        <v>18000</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="11">
-        <v>6000</v>
+        <v>68</v>
+      </c>
+      <c r="D15" s="10">
+        <v>7200</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="11">
-        <v>2400</v>
+      <c r="B16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="10">
+        <v>8000</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1200</v>
+        <v>43</v>
+      </c>
+      <c r="D17" s="13">
+        <v>3666</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11">
         <v>0</v>
       </c>
+      <c r="G17" s="14"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -1247,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1261,19 +1255,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1284,7 +1278,7 @@
         <v>1000324</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -1298,7 +1292,7 @@
         <v>1000325</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -1312,7 +1306,7 @@
         <v>1000326</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -1326,7 +1320,7 @@
         <v>1000327</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>290</v>
@@ -1340,7 +1334,7 @@
         <v>1000328</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1">
         <v>590</v>
@@ -1354,7 +1348,7 @@
         <v>1000329</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
         <v>1490</v>
@@ -1368,7 +1362,7 @@
         <v>1000330</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>2990</v>
@@ -1382,7 +1376,7 @@
         <v>1000331</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1">
         <v>7490</v>
@@ -1437,16 +1431,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1456,7 +1471,7 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1467,59 +1482,38 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>line|</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>swjl_1</t>
-  </si>
-  <si>
-    <t>swjl_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -168,20 +165,10 @@
     <t>swjl_3</t>
   </si>
   <si>
-    <t>icon_gjhd</t>
-  </si>
-  <si>
     <t>icon_cjhd</t>
   </si>
   <si>
-    <t>icon_jc</t>
-  </si>
-  <si>
     <t>icon_yc</t>
-  </si>
-  <si>
-    <t>高级核弹*1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -234,44 +221,36 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>act_005_hhl_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_005_hhl_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为荣耀手机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>家用吸尘器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米蓝牙耳机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>500万金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>山药薄片*10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小金锤*10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>500万金币</t>
+    <t>actp_no_cjj_gej_exchange_V5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange_V5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>swjl_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_006_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_006_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的空调</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫地机器人</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>pay_icon_gold</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -282,39 +261,59 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>8</t>
+      <t>00元话费</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>actp_no_cjj_gej_exchange_V5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_cjj_gej_exchange_V5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>swjl_4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>swjl_4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200万鱼币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200万小游戏币</t>
+    <t>500万鱼币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫龙亲嘴烧30片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000福利券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com_award_icon_hf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_yb_5</t>
   </si>
   <si>
+    <t>ty_icon_flq4</t>
+  </si>
+  <si>
+    <t>500万小游戏币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>ty_icon_yxb_5</t>
+  </si>
+  <si>
+    <t>荣耀手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -755,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -816,19 +815,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="11">
+        <v>47</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="F2" s="11">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="G2" s="11">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>35</v>
@@ -848,22 +847,22 @@
         <v>12</v>
       </c>
       <c r="C3" s="11">
+        <v>48</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="F3" s="11">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="G3" s="11">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -883,14 +882,14 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="28.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="23" style="6" customWidth="1"/>
     <col min="6" max="6" width="24.125" style="6" customWidth="1"/>
@@ -900,7 +899,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
@@ -926,20 +925,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="13">
-        <v>866600</v>
+        <v>1080000</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="11">
         <v>1</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -947,32 +946,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13">
-        <v>96666</v>
+        <v>880000</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="11">
         <v>1</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="13">
-        <v>58888</v>
+        <v>180000</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="11">
@@ -984,14 +985,14 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>40</v>
+      <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D5" s="13">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
@@ -1004,10 +1005,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="10">
         <v>18000</v>
@@ -1022,18 +1023,18 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>67</v>
+      <c r="B7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="D7" s="10">
-        <v>7200</v>
+        <v>8000</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="14"/>
     </row>
@@ -1045,14 +1046,14 @@
         <v>57</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D8" s="10">
-        <v>8000</v>
+        <v>7200</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="14"/>
     </row>
@@ -1061,10 +1062,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="13">
         <v>3666</v>
@@ -1080,20 +1081,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="13">
-        <v>866600</v>
+        <v>1080000</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="11">
         <v>1</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1101,32 +1102,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="13">
-        <v>96666</v>
+        <v>880000</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="13">
-        <v>58888</v>
+        <v>180000</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="11">
@@ -1139,13 +1142,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="D13" s="13">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11">
@@ -1158,10 +1161,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" s="10">
         <v>18000</v>
@@ -1176,18 +1179,18 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>68</v>
+      <c r="B15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="D15" s="10">
-        <v>7200</v>
+        <v>8000</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -1199,14 +1202,14 @@
         <v>57</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" s="10">
-        <v>8000</v>
+        <v>7200</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="14"/>
     </row>
@@ -1215,10 +1218,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" s="13">
         <v>3666</v>
@@ -1431,6 +1434,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1441,7 +1475,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1451,69 +1485,38 @@
 </settings>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>line|</t>
   </si>
@@ -233,22 +233,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>act_006_hhl_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_006_hhl_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的空调</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫地机器人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1</t>
     </r>
@@ -270,10 +254,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>卫龙亲嘴烧30片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2000福利券</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -308,11 +288,35 @@
     <t>ty_icon_yxb_5</t>
   </si>
   <si>
-    <t>荣耀手机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣耀手机</t>
+    <t>act_007_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的微波炉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的微波炉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -754,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -815,19 +819,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="11">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="G2" s="11">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>35</v>
@@ -847,19 +851,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="11">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="G3" s="11">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>44</v>
@@ -881,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -925,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>36</v>
@@ -946,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>37</v>
@@ -967,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>38</v>
@@ -986,10 +990,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D5" s="13">
         <v>60000</v>
@@ -1005,10 +1009,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D6" s="10">
         <v>18000</v>
@@ -1024,7 +1028,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>49</v>
@@ -1043,10 +1047,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8" s="10">
         <v>7200</v>
@@ -1081,7 +1085,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>36</v>
@@ -1102,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>37</v>
@@ -1123,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>38</v>
@@ -1142,10 +1146,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D13" s="13">
         <v>60000</v>
@@ -1161,10 +1165,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D14" s="10">
         <v>18000</v>
@@ -1180,7 +1184,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>49</v>
@@ -1199,10 +1203,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D16" s="10">
         <v>7200</v>
@@ -1434,26 +1438,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1464,59 +1479,48 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>line|</t>
   </si>
@@ -288,35 +288,27 @@
     <t>ty_icon_yxb_5</t>
   </si>
   <si>
-    <t>act_007_hhl_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔记本电脑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的微波炉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔记本电脑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的微波炉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄罗斯巧克力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄罗斯巧克力</t>
+    <t>act_008_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能按摩椅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vivo手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳胶枕一对</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫龙亲嘴烧30片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_008_hhl_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -758,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -819,7 +811,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>58</v>
@@ -828,10 +820,10 @@
         <v>45</v>
       </c>
       <c r="F2" s="11">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="G2" s="11">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>35</v>
@@ -851,19 +843,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="11">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="G3" s="11">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>44</v>
@@ -885,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -928,7 +920,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -949,8 +941,8 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>65</v>
+      <c r="B3" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>37</v>
@@ -970,8 +962,8 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>60</v>
+      <c r="B4" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>38</v>
@@ -1028,7 +1020,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>49</v>
@@ -1084,8 +1076,8 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>61</v>
+      <c r="B10" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>36</v>
@@ -1105,8 +1097,8 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>65</v>
+      <c r="B11" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>37</v>
@@ -1126,14 +1118,14 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>62</v>
+      <c r="B12" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="13">
-        <v>180000</v>
+        <v>130000</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="11">
@@ -1184,7 +1176,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>49</v>
@@ -1249,7 +1241,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1438,13 +1430,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1458,25 +1462,13 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1490,13 +1482,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1508,13 +1500,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>line|</t>
   </si>
@@ -165,27 +165,7 @@
     <t>swjl_3</t>
   </si>
   <si>
-    <t>icon_cjhd</t>
-  </si>
-  <si>
     <t>icon_yc</t>
-  </si>
-  <si>
-    <r>
-      <t>初级核弹*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -221,10 +201,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>actp_no_cjj_gej_exchange_V5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_cjj_gej_exchange_V5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -288,27 +264,71 @@
     <t>ty_icon_yxb_5</t>
   </si>
   <si>
+    <t>智能按摩椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳胶枕一对</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫龙亲嘴烧30片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>act_008_hhl_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>智能按摩椅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vivo手机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳胶枕一对</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫龙亲嘴烧30片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_008_hhl_</t>
+    <t>actp_prop_exchange_nor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_009_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的微波炉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手帕纸10包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>swjl_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>swjl_5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +398,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -394,7 +420,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,6 +468,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -750,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,19 +861,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F2" s="11">
-        <v>1617062400</v>
+        <v>1618272000</v>
       </c>
       <c r="G2" s="11">
-        <v>1617638399</v>
+        <v>1618847999</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>35</v>
@@ -846,10 +896,10 @@
         <v>52</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" s="11">
         <v>1617062400</v>
@@ -858,7 +908,7 @@
         <v>1617638399</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -877,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -895,7 +945,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
@@ -917,167 +967,179 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="18">
         <v>1080000</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="11">
+      <c r="E2" s="19"/>
+      <c r="F2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="18">
+        <v>880000</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="18">
+        <v>180000</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="C5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="18">
+        <v>60000</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="13">
-        <v>880000</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="11">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="17">
+        <v>30000</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="17">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="17">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20">
         <v>1</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="13">
-        <v>180000</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="11">
+      <c r="G8" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20">
         <v>1</v>
       </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="13">
-        <v>60000</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="10">
-        <v>18000</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="10">
-        <v>8000</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="10">
-        <v>7200</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="13">
-        <v>3666</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>36</v>
@@ -1090,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1098,7 +1160,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>37</v>
@@ -1111,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1119,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>38</v>
@@ -1138,10 +1200,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="D13" s="13">
         <v>60000</v>
@@ -1157,10 +1219,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" s="10">
         <v>18000</v>
@@ -1176,10 +1238,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15" s="10">
         <v>8000</v>
@@ -1195,10 +1257,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="D16" s="10">
         <v>7200</v>
@@ -1214,10 +1276,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="13">
         <v>3666</v>

--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>line|</t>
   </si>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>swjl_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -189,10 +185,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>9,10,11,12,13,14,15,16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_fish_drop_act_0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -226,10 +218,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>500万鱼币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2000福利券</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -251,9 +239,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_yb_5</t>
-  </si>
-  <si>
     <t>ty_icon_flq4</t>
   </si>
   <si>
@@ -285,6 +270,13 @@
   </si>
   <si>
     <t>actp_prop_exchange_nor</t>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -292,31 +284,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>actp_prop_exchange_nor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_009_hhl_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔记本电脑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的微波炉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>1000万金币</t>
+  </si>
+  <si>
+    <t>索尼耳机</t>
+  </si>
+  <si>
+    <t>金龙鱼油</t>
+  </si>
+  <si>
+    <t>400万小游戏币</t>
+  </si>
+  <si>
+    <t>20元话费</t>
+  </si>
+  <si>
+    <t>1500福利券</t>
   </si>
   <si>
     <t>俄罗斯巧克力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手帕纸10包</t>
+  </si>
+  <si>
+    <t>5元优惠券</t>
+  </si>
+  <si>
+    <t>家用棉签500支</t>
+  </si>
+  <si>
+    <r>
+      <t>swjl_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>家用沙发椅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf20</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -324,11 +340,48 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>swjl_4</t>
+    <t>swjl_3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>swjl_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_198y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1,2,3,4,5,6,7,8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,9,10</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_010_hhl_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +425,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -400,7 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,6 +539,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -484,14 +554,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -801,7 +868,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -861,22 +928,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="11">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="G2" s="11">
-        <v>1618847999</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>1620662399</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
@@ -896,10 +963,10 @@
         <v>52</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="11">
         <v>1617062400</v>
@@ -907,8 +974,8 @@
       <c r="G3" s="11">
         <v>1617638399</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>42</v>
+      <c r="I3" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -925,10 +992,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -945,7 +1012,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
@@ -966,304 +1033,308 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="18">
-        <v>1080000</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20">
+        <v>70</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="19">
+        <v>96000</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21">
         <v>1</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G2" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="18">
-        <v>880000</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20">
-        <v>1</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="19">
+        <v>60000</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="18">
-        <v>180000</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20">
+        <v>61</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="19">
+        <v>42000</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21">
         <v>1</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G4" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="18">
-        <v>60000</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20">
-        <v>0</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="19">
+        <v>30000</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21">
+        <v>1</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="17">
-        <v>30000</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20">
+        <v>63</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="18">
+        <v>24000</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
         <v>0</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G6" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="B7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="18">
         <v>12000</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21">
         <v>0</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G7" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="17">
-        <v>6000</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="18">
+        <v>9000</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="19">
+        <v>6000</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="19">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="18">
-        <v>2000</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20">
+      <c r="C11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2800</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21">
         <v>1</v>
       </c>
-      <c r="G9" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="G11" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="13">
         <v>1080000</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="13">
-        <v>880000</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="13">
-        <v>130000</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="11">
         <v>1</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="D13" s="13">
-        <v>60000</v>
-      </c>
-      <c r="E13" s="11"/>
+        <v>880000</v>
+      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="10">
-        <v>18000</v>
-      </c>
-      <c r="E14" s="11"/>
+      <c r="C14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="13">
+        <v>130000</v>
+      </c>
+      <c r="E14" s="9"/>
       <c r="F14" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="10">
-        <v>8000</v>
+      <c r="B15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="13">
+        <v>60000</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>52</v>
+      <c r="C16" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="D16" s="10">
-        <v>7200</v>
+        <v>18000</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11">
@@ -1272,23 +1343,61 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="13">
-        <v>3666</v>
+      <c r="B17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="10">
+        <v>8000</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="10">
+        <v>7200</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11">
         <v>0</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="13">
+        <v>3666</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -1303,7 +1412,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1503,6 +1612,36 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1513,36 +1652,6 @@
 </pixelators>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
@@ -1550,13 +1659,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1568,13 +1677,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -54,7 +54,7 @@
     <t>cpl_notcjj</t>
   </si>
   <si>
-    <t>act_011_hhl_</t>
+    <t>act_012_hhl_</t>
   </si>
   <si>
     <t>prop_fish_drop_act_0</t>
@@ -82,7 +82,7 @@
     </r>
   </si>
   <si>
-    <t>"game_MiniGame",</t>
+    <t>"game_Fishing3DHall",</t>
   </si>
   <si>
     <t>help_info</t>
@@ -106,95 +106,76 @@
     <t>type|类型 实物 1 金币 0</t>
   </si>
   <si>
-    <t>500元话费</t>
-  </si>
-  <si>
-    <t>com_award_icon_hf500</t>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v5</t>
-  </si>
-  <si>
-    <t>100元话费</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>com_award_icon_hf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100</t>
-    </r>
+    <t>美的智能风扇</t>
+  </si>
+  <si>
+    <t>swjl_1</t>
   </si>
   <si>
     <t>actp_prop_exchange_nor_v4</t>
   </si>
   <si>
-    <t>700万金币</t>
-  </si>
-  <si>
-    <t>pay_icon_gold8</t>
+    <t>1000万金币</t>
+  </si>
+  <si>
+    <t>pay_icon_gold9</t>
   </si>
   <si>
     <t>actp_prop_exchange_nor_v3</t>
   </si>
   <si>
-    <t>50元话费</t>
-  </si>
-  <si>
-    <t>com_award_icon_hf50</t>
+    <t>大鲸鱼抱枕</t>
+  </si>
+  <si>
+    <t>swjl_2</t>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v2</t>
+  </si>
+  <si>
+    <t>旺仔牛奶*20</t>
+  </si>
+  <si>
+    <t>swjl_3</t>
   </si>
   <si>
     <t>actp_prop_exchange_nor</t>
   </si>
   <si>
-    <t>400万金币</t>
-  </si>
-  <si>
-    <t>pay_icon_gold7</t>
-  </si>
-  <si>
-    <t>20元话费</t>
-  </si>
-  <si>
-    <t>com_award_icon_hf20</t>
-  </si>
-  <si>
-    <t>150万小游戏币</t>
+    <t>400万鱼币</t>
+  </si>
+  <si>
+    <t>ty_icon_yb_5</t>
+  </si>
+  <si>
+    <t>自动吹泡泡机</t>
+  </si>
+  <si>
+    <t>swjl_4</t>
+  </si>
+  <si>
+    <t>1500福利券</t>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
+  </si>
+  <si>
+    <t>旺仔QQ糖*10</t>
+  </si>
+  <si>
+    <t>swjl_5</t>
+  </si>
+  <si>
+    <t>50万小游戏币</t>
   </si>
   <si>
     <t>ty_icon_yxb_5</t>
   </si>
   <si>
-    <t>10元话费</t>
-  </si>
-  <si>
-    <t>com_award_icon_hf10</t>
-  </si>
-  <si>
-    <t>50万鱼币</t>
-  </si>
-  <si>
-    <t>ty_icon_yb_5</t>
-  </si>
-  <si>
-    <t>2元话费</t>
-  </si>
-  <si>
-    <t>com_award_icon_hf2</t>
+    <t>200话费碎片</t>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
   </si>
   <si>
     <t>ID</t>
@@ -261,11 +242,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,12 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF171A1D"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -298,8 +273,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,16 +325,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,21 +380,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -367,73 +404,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -462,19 +437,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,157 +569,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,15 +622,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -670,45 +636,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,6 +657,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -739,11 +684,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,10 +730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,136 +742,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -929,35 +904,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1308,13 +1283,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C17:C18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
@@ -1371,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>12</v>
@@ -1379,16 +1354,16 @@
       <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
-        <v>1621900800</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1622476799</v>
-      </c>
-      <c r="I2" s="19" t="s">
+      <c r="F2" s="17">
+        <v>1622505600</v>
+      </c>
+      <c r="G2" s="17">
+        <v>1623081599</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1396,12 +1371,16 @@
       </c>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="10"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="I3" s="19"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="4:5">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1412,10 +1391,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1464,12 +1443,12 @@
         <v>24</v>
       </c>
       <c r="D2" s="5">
-        <v>300000</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0</v>
-      </c>
-      <c r="G2" s="11" t="s">
+        <v>120000</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1486,30 +1465,30 @@
       <c r="D3" s="5">
         <v>60000</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="5">
-        <v>42000</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12" t="s">
+        <v>40000</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1526,30 +1505,30 @@
       <c r="D5" s="5">
         <v>30000</v>
       </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="5">
         <v>24000</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1564,32 +1543,32 @@
         <v>38</v>
       </c>
       <c r="D7" s="5">
-        <v>12000</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12" t="s">
+        <v>15000</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:7">
+    <row r="8" spans="1:7">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="5">
         <v>9000</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1606,30 +1585,30 @@
       <c r="D9" s="5">
         <v>6000</v>
       </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:7">
+    <row r="10" spans="1:7">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="5">
         <v>3000</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1644,12 +1623,12 @@
         <v>46</v>
       </c>
       <c r="D11" s="5">
-        <v>1200</v>
-      </c>
-      <c r="F11" s="10">
+        <v>1800</v>
+      </c>
+      <c r="F11" s="5">
         <v>0</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1657,103 +1636,163 @@
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="17"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="18"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="8"/>
-      <c r="B17" s="16"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="18"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="18"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19" s="13"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20" s="9"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21" s="9"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="8"/>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22" s="9"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23" s="9"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="8"/>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24" s="9"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="8"/>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="C25" s="9"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="8"/>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="C26" s="9"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="8"/>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="C27" s="9"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="8"/>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="C28" s="9"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="8"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="8"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="8"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="8"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -1769,7 +1808,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>line|</t>
   </si>
@@ -54,7 +54,7 @@
     <t>cpl_notcjj</t>
   </si>
   <si>
-    <t>act_012_hhl_</t>
+    <t>act_011_hhl_</t>
   </si>
   <si>
     <t>prop_fish_drop_act_0</t>
@@ -106,76 +106,76 @@
     <t>type|类型 实物 1 金币 0</t>
   </si>
   <si>
-    <t>美的智能风扇</t>
-  </si>
-  <si>
-    <t>swjl_1</t>
+    <t>500元话费</t>
+  </si>
+  <si>
+    <t>com_award_icon_hf500</t>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v5</t>
+  </si>
+  <si>
+    <t>100元话费</t>
+  </si>
+  <si>
+    <t>com_award_icon_hf100</t>
   </si>
   <si>
     <t>actp_prop_exchange_nor_v4</t>
   </si>
   <si>
-    <t>1000万金币</t>
-  </si>
-  <si>
-    <t>pay_icon_gold9</t>
+    <t>700万金币</t>
+  </si>
+  <si>
+    <t>pay_icon_gold8</t>
   </si>
   <si>
     <t>actp_prop_exchange_nor_v3</t>
   </si>
   <si>
-    <t>大鲸鱼抱枕</t>
-  </si>
-  <si>
-    <t>swjl_2</t>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v2</t>
-  </si>
-  <si>
-    <t>旺仔牛奶*20</t>
-  </si>
-  <si>
-    <t>swjl_3</t>
+    <t>50元话费</t>
+  </si>
+  <si>
+    <t>com_award_icon_hf50</t>
   </si>
   <si>
     <t>actp_prop_exchange_nor</t>
   </si>
   <si>
-    <t>400万鱼币</t>
+    <t>400万金币</t>
+  </si>
+  <si>
+    <t>pay_icon_gold7</t>
+  </si>
+  <si>
+    <t>20元话费</t>
+  </si>
+  <si>
+    <t>com_award_icon_hf20</t>
+  </si>
+  <si>
+    <t>150万小游戏币</t>
+  </si>
+  <si>
+    <t>ty_icon_yxb_5</t>
+  </si>
+  <si>
+    <t>10元话费</t>
+  </si>
+  <si>
+    <t>com_award_icon_hf10</t>
+  </si>
+  <si>
+    <t>50万鱼币</t>
   </si>
   <si>
     <t>ty_icon_yb_5</t>
   </si>
   <si>
-    <t>自动吹泡泡机</t>
-  </si>
-  <si>
-    <t>swjl_4</t>
-  </si>
-  <si>
-    <t>1500福利券</t>
-  </si>
-  <si>
-    <t>ty_icon_flq4</t>
-  </si>
-  <si>
-    <t>旺仔QQ糖*10</t>
-  </si>
-  <si>
-    <t>swjl_5</t>
-  </si>
-  <si>
-    <t>50万小游戏币</t>
-  </si>
-  <si>
-    <t>ty_icon_yxb_5</t>
-  </si>
-  <si>
-    <t>200话费碎片</t>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
+    <t>2元话费</t>
+  </si>
+  <si>
+    <t>com_award_icon_hf2</t>
   </si>
   <si>
     <t>ID</t>
@@ -191,49 +191,6 @@
   </si>
   <si>
     <t>备注：此处商场的加赠第一个没有，若要添加，则直接添加即可</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>85</t>
-    </r>
-  </si>
-  <si>
-    <t>3,86</t>
-  </si>
-  <si>
-    <t>4,87</t>
-  </si>
-  <si>
-    <t>5,88</t>
-  </si>
-  <si>
-    <t>111,10189</t>
-  </si>
-  <si>
-    <t>6,89</t>
-  </si>
-  <si>
-    <t>108,10044</t>
-  </si>
-  <si>
-    <t>110,10045</t>
   </si>
 </sst>
 </file>
@@ -241,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -266,10 +223,56 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,8 +284,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,45 +329,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,6 +345,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -356,59 +360,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -437,181 +394,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,35 +597,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,17 +617,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,6 +664,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -730,10 +687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,133 +699,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1285,8 +1242,8 @@
   <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1345,8 +1302,8 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1">
-        <v>56</v>
+      <c r="C2" s="17">
+        <v>57</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>12</v>
@@ -1355,10 +1312,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="17">
-        <v>1622505600</v>
+        <v>1624320000</v>
       </c>
       <c r="G2" s="17">
-        <v>1623081599</v>
+        <v>1624895999</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>14</v>
@@ -1393,8 +1350,8 @@
   <sheetPr/>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1443,10 +1400,10 @@
         <v>24</v>
       </c>
       <c r="D2" s="5">
-        <v>120000</v>
+        <v>300000</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>25</v>
@@ -1483,10 +1440,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="5">
-        <v>40000</v>
+        <v>42000</v>
       </c>
       <c r="F4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>31</v>
@@ -1506,7 +1463,7 @@
         <v>30000</v>
       </c>
       <c r="F5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>34</v>
@@ -1543,10 +1500,10 @@
         <v>38</v>
       </c>
       <c r="D7" s="5">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="F7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>34</v>
@@ -1586,7 +1543,7 @@
         <v>6000</v>
       </c>
       <c r="F9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>34</v>
@@ -1623,7 +1580,7 @@
         <v>46</v>
       </c>
       <c r="D11" s="5">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
@@ -1805,10 +1762,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A2" sqref="A2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1836,117 +1793,45 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1000324</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1000325</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1000326</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1000327</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="1">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1000328</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="1">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1000329</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1000330</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1000331</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1">
-        <v>7490</v>
-      </c>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
@@ -1987,6 +1872,12 @@
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19">
+        <f>-E28</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>

--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>line|</t>
   </si>
@@ -54,32 +54,13 @@
     <t>cpl_notcjj</t>
   </si>
   <si>
-    <t>act_011_hhl_</t>
+    <t>act_009_hhl_</t>
   </si>
   <si>
     <t>prop_fish_drop_act_0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1,2,3,4,5,6,7,8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,9,10</t>
-    </r>
+    <t>1,2,3,4,5,6,7,8</t>
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
@@ -106,76 +87,58 @@
     <t>type|类型 实物 1 金币 0</t>
   </si>
   <si>
-    <t>500元话费</t>
-  </si>
-  <si>
-    <t>com_award_icon_hf500</t>
+    <t>笔记本电脑</t>
+  </si>
+  <si>
+    <t>swjl_1</t>
   </si>
   <si>
     <t>actp_prop_exchange_nor_v5</t>
   </si>
   <si>
+    <t>vivo手机</t>
+  </si>
+  <si>
+    <t>swjl_2</t>
+  </si>
+  <si>
+    <t>美的微波炉</t>
+  </si>
+  <si>
+    <t>swjl_3</t>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor</t>
+  </si>
+  <si>
     <t>100元话费</t>
   </si>
   <si>
     <t>com_award_icon_hf100</t>
   </si>
   <si>
-    <t>actp_prop_exchange_nor_v4</t>
-  </si>
-  <si>
-    <t>700万金币</t>
-  </si>
-  <si>
-    <t>pay_icon_gold8</t>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v3</t>
-  </si>
-  <si>
-    <t>50元话费</t>
-  </si>
-  <si>
-    <t>com_award_icon_hf50</t>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor</t>
-  </si>
-  <si>
-    <t>400万金币</t>
-  </si>
-  <si>
-    <t>pay_icon_gold7</t>
-  </si>
-  <si>
-    <t>20元话费</t>
-  </si>
-  <si>
-    <t>com_award_icon_hf20</t>
-  </si>
-  <si>
-    <t>150万小游戏币</t>
-  </si>
-  <si>
-    <t>ty_icon_yxb_5</t>
-  </si>
-  <si>
-    <t>10元话费</t>
-  </si>
-  <si>
-    <t>com_award_icon_hf10</t>
-  </si>
-  <si>
-    <t>50万鱼币</t>
+    <t>500万鱼币</t>
   </si>
   <si>
     <t>ty_icon_yb_5</t>
   </si>
   <si>
-    <t>2元话费</t>
-  </si>
-  <si>
-    <t>com_award_icon_hf2</t>
+    <t>2000福利券</t>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
+  </si>
+  <si>
+    <t>俄罗斯巧克力</t>
+  </si>
+  <si>
+    <t>swjl_4</t>
+  </si>
+  <si>
+    <t>手帕纸10包</t>
+  </si>
+  <si>
+    <t>swjl_5</t>
   </si>
   <si>
     <t>ID</t>
@@ -198,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -221,6 +184,65 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -232,6 +254,37 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -239,24 +292,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,39 +309,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,59 +329,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -394,25 +357,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,31 +471,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,49 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,61 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,6 +556,51 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,36 +634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -664,21 +642,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -687,7 +650,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -699,133 +662,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1242,8 +1205,8 @@
   <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1303,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="17">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>12</v>
@@ -1312,10 +1275,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="17">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="G2" s="17">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>14</v>
@@ -1350,8 +1313,8 @@
   <sheetPr/>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1400,10 +1363,10 @@
         <v>24</v>
       </c>
       <c r="D2" s="5">
-        <v>300000</v>
+        <v>1080000</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>25</v>
@@ -1420,13 +1383,13 @@
         <v>27</v>
       </c>
       <c r="D3" s="5">
-        <v>60000</v>
+        <v>880000</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1434,19 +1397,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="5">
+        <v>180000</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="5">
-        <v>42000</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1454,19 +1417,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="D5" s="5">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1474,19 +1437,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1494,10 +1457,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5">
         <v>12000</v>
@@ -1506,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1514,19 +1477,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="F8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1534,60 +1497,30 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="F9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="5">
-        <v>3000</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1200</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="A11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="8"/>
@@ -1765,7 +1698,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D13"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1778,19 +1711,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>line|</t>
   </si>
@@ -59,7 +59,7 @@
     <t>cpl_notcjj</t>
   </si>
   <si>
-    <t>act_013_hhl_</t>
+    <t>act_011_hhl_</t>
   </si>
   <si>
     <t>prop_fish_drop_act_0</t>
@@ -92,19 +92,64 @@
     <t>type|类型 实物 1 金币 0</t>
   </si>
   <si>
-    <t>100话费碎片</t>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
+    <t>500元话费</t>
+  </si>
+  <si>
+    <t>com_award_icon_hf500</t>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v5</t>
+  </si>
+  <si>
+    <t>100元话费</t>
+  </si>
+  <si>
+    <t>com_award_icon_hf100</t>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v4</t>
+  </si>
+  <si>
+    <t>700万金币</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v3</t>
+  </si>
+  <si>
+    <t>50元话费</t>
+  </si>
+  <si>
+    <t>com_award_icon_hf50</t>
   </si>
   <si>
     <t>actp_prop_exchange_nor</t>
   </si>
   <si>
-    <t>10元充值优惠券*1</t>
-  </si>
-  <si>
-    <t>com_award_icon_czyhq2</t>
+    <t>400万金币</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+  </si>
+  <si>
+    <t>20元话费</t>
+  </si>
+  <si>
+    <t>com_award_icon_hf20</t>
+  </si>
+  <si>
+    <t>150万小游戏币</t>
+  </si>
+  <si>
+    <t>ty_icon_yxb_4</t>
+  </si>
+  <si>
+    <t>10元话费</t>
+  </si>
+  <si>
+    <t>com_award_icon_hf10</t>
   </si>
   <si>
     <t>50万鱼币</t>
@@ -113,46 +158,10 @@
     <t>ty_icon_yb_3</t>
   </si>
   <si>
-    <t>100万金币</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_15y</t>
-  </si>
-  <si>
-    <t>2000福利券</t>
-  </si>
-  <si>
-    <t>ty_icon_flq4</t>
-  </si>
-  <si>
-    <t>水晶虾饺</t>
-  </si>
-  <si>
-    <t>swjl_1</t>
-  </si>
-  <si>
-    <t>1000万金币</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-  </si>
-  <si>
-    <t>麻辣小龙虾</t>
-  </si>
-  <si>
-    <t>swjl_2</t>
-  </si>
-  <si>
-    <t>2000万鱼币</t>
-  </si>
-  <si>
-    <t>ty_icon_yxb_5</t>
-  </si>
-  <si>
-    <t>麻辣小龙虾尾</t>
-  </si>
-  <si>
-    <t>swjl_3</t>
+    <t>2元话费</t>
+  </si>
+  <si>
+    <t>com_award_icon_hf2</t>
   </si>
   <si>
     <t>ID</t>
@@ -170,54 +179,11 @@
     <t>备注：此处商场的加赠第一个没有，若要添加，则直接添加即可</t>
   </si>
   <si>
-    <r>
-      <t>j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f_icon|积分图标</t>
-    </r>
+    <t>jf_num|积分数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f_icon_1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f_num|积分数量</t>
-    </r>
+    <t>jf_icon|积分图标</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +261,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,9 +308,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -689,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -718,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>12</v>
@@ -726,14 +689,12 @@
       <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>50</v>
-      </c>
+      <c r="F2" s="9"/>
       <c r="G2" s="11">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="H2" s="11">
-        <v>1627315199</v>
+        <v>1627919999</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>14</v>
@@ -769,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -799,7 +760,7 @@
         <v>20</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>21</v>
@@ -822,11 +783,9 @@
         <v>24</v>
       </c>
       <c r="D2" s="2">
-        <v>600</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
+        <v>300000</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="G2" s="5">
         <v>0</v>
       </c>
@@ -845,16 +804,14 @@
         <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>20</v>
-      </c>
+        <v>60000</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="G3" s="5">
         <v>0</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -862,22 +819,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>60</v>
-      </c>
+        <v>42000</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="G4" s="5">
         <v>0</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -885,22 +840,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
-        <v>6000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>120</v>
-      </c>
+        <v>30000</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="G5" s="5">
         <v>0</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -908,22 +861,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2">
-        <v>12000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>240</v>
-      </c>
+        <v>24000</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="G6" s="5">
         <v>0</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -931,22 +882,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2">
-        <v>36000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>720</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -954,22 +903,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1000</v>
-      </c>
+        <v>9000</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -977,22 +924,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2">
-        <v>80000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1600</v>
-      </c>
+        <v>6000</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="G9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1000,22 +945,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2">
-        <v>120000</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2400</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1023,22 +966,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2">
-        <v>150000</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3000</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="G11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1151,19 +1092,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">

--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>line|</t>
   </si>
@@ -59,9 +59,6 @@
     <t>cpl_notcjj</t>
   </si>
   <si>
-    <t>act_011_hhl_</t>
-  </si>
-  <si>
     <t>prop_fish_drop_act_0</t>
   </si>
   <si>
@@ -92,76 +89,16 @@
     <t>type|类型 实物 1 金币 0</t>
   </si>
   <si>
-    <t>500元话费</t>
-  </si>
-  <si>
-    <t>com_award_icon_hf500</t>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v5</t>
-  </si>
-  <si>
-    <t>100元话费</t>
-  </si>
-  <si>
-    <t>com_award_icon_hf100</t>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v4</t>
-  </si>
-  <si>
-    <t>700万金币</t>
-  </si>
-  <si>
     <t>ty_icon_jb_30y</t>
   </si>
   <si>
-    <t>actp_prop_exchange_nor_v3</t>
-  </si>
-  <si>
-    <t>50元话费</t>
-  </si>
-  <si>
-    <t>com_award_icon_hf50</t>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor</t>
-  </si>
-  <si>
-    <t>400万金币</t>
-  </si>
-  <si>
     <t>ty_icon_jb_15y</t>
   </si>
   <si>
-    <t>20元话费</t>
-  </si>
-  <si>
-    <t>com_award_icon_hf20</t>
-  </si>
-  <si>
-    <t>150万小游戏币</t>
-  </si>
-  <si>
-    <t>ty_icon_yxb_4</t>
-  </si>
-  <si>
-    <t>10元话费</t>
-  </si>
-  <si>
-    <t>com_award_icon_hf10</t>
-  </si>
-  <si>
     <t>50万鱼币</t>
   </si>
   <si>
     <t>ty_icon_yb_3</t>
-  </si>
-  <si>
-    <t>2元话费</t>
-  </si>
-  <si>
-    <t>com_award_icon_hf2</t>
   </si>
   <si>
     <t>ID</t>
@@ -184,6 +121,80 @@
   </si>
   <si>
     <t>jf_icon|积分图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100话费碎片</t>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
+  </si>
+  <si>
+    <t>100万金币</t>
+  </si>
+  <si>
+    <t>2000福利券</t>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
+  </si>
+  <si>
+    <t>swjl_1</t>
+  </si>
+  <si>
+    <t>1000万金币</t>
+  </si>
+  <si>
+    <t>swjl_2</t>
+  </si>
+  <si>
+    <t>2000万鱼币</t>
+  </si>
+  <si>
+    <t>swjl_3</t>
+  </si>
+  <si>
+    <r>
+      <t>act_01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_hhl_</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车家两用小冰箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰国乳胶枕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓鼠舒适靠枕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yb_5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -202,6 +213,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -261,7 +273,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -308,6 +320,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -371,7 +386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,7 +421,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -617,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -652,7 +667,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -681,29 +696,29 @@
         <v>11</v>
       </c>
       <c r="C2" s="11">
-        <v>57</v>
-      </c>
-      <c r="D2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="11">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="H2" s="11">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
       <c r="J2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -728,10 +743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -748,25 +763,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>1</v>
@@ -777,147 +792,133 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
-        <v>300000</v>
+        <v>600</v>
       </c>
       <c r="E2" s="2"/>
       <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
-        <v>60000</v>
+        <v>3000</v>
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
-        <v>42000</v>
+        <v>6000</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2">
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>12000</v>
+        <v>50000</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="2">
-        <v>9000</v>
+        <v>80000</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
@@ -926,61 +927,39 @@
       <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>42</v>
+      <c r="C9" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D9" s="2">
-        <v>6000</v>
+        <v>120000</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2">
-        <v>3000</v>
+        <v>150000</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1200</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="A11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
@@ -1062,15 +1041,12 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1092,19 +1068,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">

--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>line|</t>
   </si>
@@ -154,47 +154,27 @@
     <t>swjl_3</t>
   </si>
   <si>
-    <r>
-      <t>act_01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_hhl_</t>
-    </r>
+    <t>ty_icon_yb_5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>车家两用小冰箱</t>
+    <t>情侣马克杯</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>泰国乳胶枕</t>
+    <t>高级无叶风扇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>仓鼠舒适靠枕</t>
+    <t>智能肩颈按摩仪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_yb_5</t>
+    <t>act_015_hhl_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jf_icon_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +613,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -699,17 +679,19 @@
         <v>59</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="G2" s="11">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="H2" s="11">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>13</v>
@@ -746,7 +728,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -800,7 +782,9 @@
       <c r="D2" s="2">
         <v>600</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
       <c r="G2" s="5">
         <v>0</v>
       </c>
@@ -819,7 +803,9 @@
       <c r="D3" s="2">
         <v>3000</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>60</v>
+      </c>
       <c r="G3" s="5">
         <v>0</v>
       </c>
@@ -838,7 +824,9 @@
       <c r="D4" s="2">
         <v>6000</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>120</v>
+      </c>
       <c r="G4" s="5">
         <v>0</v>
       </c>
@@ -857,7 +845,9 @@
       <c r="D5" s="2">
         <v>12000</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>240</v>
+      </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
@@ -867,8 +857,8 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
+      <c r="B6" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>38</v>
@@ -876,7 +866,9 @@
       <c r="D6" s="2">
         <v>36000</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>480</v>
+      </c>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -895,7 +887,9 @@
       <c r="D7" s="2">
         <v>50000</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>1000</v>
+      </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
@@ -905,7 +899,7 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -914,7 +908,9 @@
       <c r="D8" s="2">
         <v>80000</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>1200</v>
+      </c>
       <c r="G8" s="5">
         <v>1</v>
       </c>
@@ -928,12 +924,14 @@
         <v>41</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2">
         <v>120000</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>2400</v>
+      </c>
       <c r="G9" s="5">
         <v>0</v>
       </c>
@@ -943,8 +941,8 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
+      <c r="B10" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>42</v>
@@ -952,7 +950,9 @@
       <c r="D10" s="2">
         <v>150000</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>3000</v>
+      </c>
       <c r="G10" s="5">
         <v>1</v>
       </c>
@@ -1189,6 +1189,36 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1199,36 +1229,6 @@
 </pixelators>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
@@ -1236,13 +1236,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1254,13 +1254,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>line|</t>
   </si>
@@ -62,9 +62,6 @@
     <t>prop_fish_drop_act_0</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10</t>
-  </si>
-  <si>
     <t>"game_Fishing3DHall",</t>
   </si>
   <si>
@@ -89,92 +86,120 @@
     <t>type|类型 实物 1 金币 0</t>
   </si>
   <si>
-    <t>ty_icon_jb_30y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_15y</t>
-  </si>
-  <si>
-    <t>50万鱼币</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task_id |任务ID </t>
+  </si>
+  <si>
+    <t>shop_id|商品ID</t>
+  </si>
+  <si>
+    <t>icon_txt|商城显示 赠送数量</t>
+  </si>
+  <si>
+    <t>备注：此处商场的加赠第一个没有，若要添加，则直接添加即可</t>
+  </si>
+  <si>
+    <t>jf_num|积分数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jf_icon|积分图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000福利券</t>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
+  </si>
+  <si>
+    <t>swjl_3</t>
+  </si>
+  <si>
+    <t>act_016_hhl_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的微波炉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00元话费</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500万鱼币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手帕纸10包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_yb_3</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task_id |任务ID </t>
-  </si>
-  <si>
-    <t>shop_id|商品ID</t>
-  </si>
-  <si>
-    <t>icon_txt|商城显示 赠送数量</t>
-  </si>
-  <si>
-    <t>备注：此处商场的加赠第一个没有，若要添加，则直接添加即可</t>
-  </si>
-  <si>
-    <t>jf_num|积分数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jf_icon|积分图标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100话费碎片</t>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
-  </si>
-  <si>
-    <t>100万金币</t>
-  </si>
-  <si>
-    <t>2000福利券</t>
-  </si>
-  <si>
-    <t>ty_icon_flq4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>swjl_1</t>
-  </si>
-  <si>
-    <t>1000万金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>swjl_2</t>
-  </si>
-  <si>
-    <t>2000万鱼币</t>
-  </si>
-  <si>
-    <t>swjl_3</t>
-  </si>
-  <si>
-    <t>ty_icon_yb_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>情侣马克杯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级无叶风扇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能肩颈按摩仪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_015_hhl_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jf_icon_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swjl_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swjl_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>condiy_key|</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +278,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -303,6 +328,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I26" activeCellId="1" sqref="G8:G9 I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -647,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -679,28 +707,26 @@
         <v>59</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="F2" s="9"/>
       <c r="G2" s="11">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="H2" s="11">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
       <c r="J2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -725,10 +751,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -745,28 +771,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -776,59 +802,57 @@
       <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>34</v>
+      <c r="C2" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="D2" s="2">
-        <v>600</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
+        <v>1080000</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>25</v>
+      <c r="B3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="D3" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>60</v>
-      </c>
+        <v>880000</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>23</v>
+      <c r="C4" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="D4" s="2">
-        <v>6000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>120</v>
-      </c>
+        <v>180000</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="G4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="10"/>
     </row>
@@ -836,18 +860,16 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>37</v>
+      <c r="C5" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D5" s="2">
-        <v>12000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>240</v>
-      </c>
+        <v>60000</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="G5" s="5">
         <v>0</v>
       </c>
@@ -858,19 +880,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="2">
-        <v>36000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>480</v>
-      </c>
+        <v>30000</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="G6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -879,17 +899,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1000</v>
-      </c>
+        <v>12000</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="G7" s="5">
         <v>0</v>
       </c>
@@ -900,17 +918,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>80000</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1200</v>
-      </c>
+        <v>6000</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="G8" s="5">
         <v>1</v>
       </c>
@@ -920,43 +936,23 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>41</v>
+      <c r="B9" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>120000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2400</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="G9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="2">
-        <v>150000</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3000</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10"/>
+      <c r="A10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
@@ -1038,9 +1034,6 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -1068,19 +1061,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1178,6 +1171,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1188,24 +1197,15 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1219,18 +1219,11 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1242,13 +1235,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1260,7 +1253,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>line|</t>
   </si>
@@ -109,37 +109,40 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2000福利券</t>
-  </si>
-  <si>
-    <t>ty_icon_flq4</t>
-  </si>
-  <si>
-    <t>swjl_3</t>
-  </si>
-  <si>
-    <t>act_016_hhl_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔记本电脑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vivo手机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的微波炉</t>
+    <t>condiy_key|</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500元话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100元话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>700万金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50元话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400万金币</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>1</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -150,24 +153,45 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00元话费</t>
+      <t>0元话费</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>500万鱼币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄罗斯巧克力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手帕纸10包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
+    <t>150万小游戏币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10元话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0万鱼币</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2元话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -175,31 +199,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>swjl_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>swjl_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>swjl_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>swjl_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>condiy_key|</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v5</t>
+    <t>ty_icon_yxb_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_017_hhl_</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +314,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,6 +367,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I26" activeCellId="1" sqref="G8:G9 I26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -704,23 +743,23 @@
         <v>11</v>
       </c>
       <c r="C2" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="11">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="H2" s="11">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>13</v>
@@ -753,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -792,7 +831,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -800,20 +839,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2">
-        <v>1080000</v>
+        <v>300000</v>
       </c>
       <c r="E2" s="2"/>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -821,20 +860,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2">
-        <v>880000</v>
+        <v>60000</v>
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -842,32 +881,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2">
-        <v>180000</v>
+        <v>42000</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="5">
@@ -880,13 +921,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="5">
@@ -898,11 +939,11 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>29</v>
+      <c r="B7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="D7" s="2">
         <v>12000</v>
@@ -918,17 +959,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -937,25 +978,53 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3000</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1200</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
@@ -1171,22 +1240,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1197,7 +1250,7 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1208,7 +1261,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1218,42 +1271,58 @@
 </settings>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>line|</t>
   </si>
@@ -113,129 +113,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_018_hhl_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30万鱼币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800福利券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000福利券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500万鱼币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100元话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200元话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5万福利券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_prop_exchange_nor_v5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>700万金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>400万金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0元话费</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150万小游戏币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0万鱼币</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_yb_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_yxb_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>com_award_icon_hf100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>com_award_icon_hf200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swjl_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ty_icon_jb_30y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_hf50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_icon_jb_15y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_hf20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_017_hhl_</t>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -679,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -743,23 +693,23 @@
         <v>11</v>
       </c>
       <c r="C2" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="11">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="H2" s="11">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>13</v>
@@ -792,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -842,18 +792,16 @@
         <v>31</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2">
-        <v>300000</v>
+        <v>2000</v>
       </c>
       <c r="E2" s="2"/>
       <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
@@ -863,18 +811,16 @@
         <v>32</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
-        <v>60000</v>
+        <v>6000</v>
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
@@ -884,18 +830,16 @@
         <v>33</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2">
-        <v>42000</v>
+        <v>12000</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>42</v>
-      </c>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
@@ -905,7 +849,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2">
         <v>30000</v>
@@ -924,10 +868,10 @@
         <v>35</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2">
-        <v>24000</v>
+        <v>60000</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="5">
@@ -943,10 +887,10 @@
         <v>36</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="5">
@@ -962,10 +906,10 @@
         <v>37</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2">
-        <v>9000</v>
+        <v>300000</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="5">
@@ -981,50 +925,28 @@
         <v>38</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2">
-        <v>6000</v>
+        <v>1080000</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="5">
-        <v>3000</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1200</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
+      <c r="A11" s="8"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
@@ -1240,14 +1162,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1262,26 +1183,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1291,8 +1203,18 @@
 </allowEditUser>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1304,13 +1226,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1322,7 +1244,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>line|</t>
   </si>
@@ -56,136 +56,193 @@
     <t>help|活动规则</t>
   </si>
   <si>
+    <t>prop_fish_drop_act_0</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+  </si>
+  <si>
+    <t>help_info</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>award_name|名称</t>
+  </si>
+  <si>
+    <t>award_image|图片</t>
+  </si>
+  <si>
+    <t>item_cost_text|花费道具数量</t>
+  </si>
+  <si>
+    <t>tips|描述</t>
+  </si>
+  <si>
+    <t>type|类型 实物 1 金币 0</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task_id |任务ID </t>
+  </si>
+  <si>
+    <t>shop_id|商品ID</t>
+  </si>
+  <si>
+    <t>icon_txt|商城显示 赠送数量</t>
+  </si>
+  <si>
+    <t>备注：此处商场的加赠第一个没有，若要添加，则直接添加即可</t>
+  </si>
+  <si>
+    <t>jf_num|积分数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jf_icon|积分图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>condiy_key|</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2元话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50万小游戏币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10元话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150万小游戏币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20元话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400万金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50元话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>700万金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100元话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500元话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_017_hhl_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"game_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MiniGame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_v5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_v4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_v3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>cpl_notcjj</t>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_0</t>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-  </si>
-  <si>
-    <t>help_info</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>award_name|名称</t>
-  </si>
-  <si>
-    <t>award_image|图片</t>
-  </si>
-  <si>
-    <t>item_cost_text|花费道具数量</t>
-  </si>
-  <si>
-    <t>tips|描述</t>
-  </si>
-  <si>
-    <t>type|类型 实物 1 金币 0</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task_id |任务ID </t>
-  </si>
-  <si>
-    <t>shop_id|商品ID</t>
-  </si>
-  <si>
-    <t>icon_txt|商城显示 赠送数量</t>
-  </si>
-  <si>
-    <t>备注：此处商场的加赠第一个没有，若要添加，则直接添加即可</t>
-  </si>
-  <si>
-    <t>jf_num|积分数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jf_icon|积分图标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>condiy_key|</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_018_hhl_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30万鱼币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>800福利券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000福利券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500万鱼币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5万福利券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔记本电脑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>swjl_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_15y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +321,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,9 +358,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,6 +375,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -629,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -663,8 +723,8 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>27</v>
+      <c r="F1" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -690,42 +750,66 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="11">
+        <v>57</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="11">
-        <v>59</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="11">
-        <v>1632182400</v>
+        <v>1634601600</v>
       </c>
       <c r="H2" s="11">
-        <v>1632758399</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="14" t="s">
+        <v>1635177599</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C3" s="12"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="11">
+        <v>57</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="J3" s="13"/>
+      <c r="G3" s="11">
+        <v>1634601600</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1635177599</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D4" s="9"/>
@@ -742,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -760,96 +844,100 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="B2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5">
+        <v>300000</v>
+      </c>
       <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2">
-        <v>6000</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="B3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5">
+        <v>60000</v>
+      </c>
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="19" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>46</v>
+      <c r="B4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="D4" s="2">
-        <v>12000</v>
+        <v>42000</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="19" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>43</v>
+      <c r="B5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D5" s="2">
         <v>30000</v>
@@ -858,39 +946,37 @@
       <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>40</v>
+      <c r="B6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D6" s="2">
-        <v>60000</v>
+        <v>24000</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>41</v>
+      <c r="B7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D7" s="2">
-        <v>120000</v>
+        <v>12000</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="5">
@@ -902,14 +988,14 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>47</v>
+      <c r="B8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="D8" s="2">
-        <v>300000</v>
+        <v>9000</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="5">
@@ -921,35 +1007,58 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="2">
-        <v>1080000</v>
+        <v>6000</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
@@ -1052,19 +1161,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1162,13 +1271,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1183,17 +1293,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1203,18 +1322,8 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1226,13 +1335,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1244,7 +1353,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -114,47 +114,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>50万小游戏币</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>150万小游戏币</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>400万金币</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>50元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>700万金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_017_hhl_</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -186,14 +158,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_hf2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>pay_icon_gold7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -202,18 +166,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_hf20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_prop_exchange_v5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -230,11 +182,72 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_hf500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_prop_exchange_v3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5万福利券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万福利券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000福利券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000福利券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000福利券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00福利券</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_019_hhl_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -690,7 +703,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -756,17 +769,17 @@
         <v>57</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="11">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="H2" s="11">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>28</v>
@@ -789,23 +802,23 @@
         <v>57</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="11">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="H3" s="11">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>13</v>
@@ -827,7 +840,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -873,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D2" s="5">
         <v>300000</v>
@@ -885,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -893,10 +906,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5">
         <v>60000</v>
@@ -905,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -913,10 +926,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>42000</v>
@@ -926,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -934,10 +947,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
         <v>30000</v>
@@ -952,10 +965,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>43</v>
       </c>
       <c r="D6" s="2">
         <v>24000</v>
@@ -970,10 +983,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2">
         <v>12000</v>
@@ -989,10 +1002,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2">
         <v>9000</v>
@@ -1008,10 +1021,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2">
         <v>6000</v>
@@ -1027,10 +1040,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2">
         <v>3000</v>
@@ -1045,11 +1058,11 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
+      <c r="B11" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2">
         <v>1200</v>
@@ -1271,6 +1284,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1281,7 +1314,7 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1292,7 +1325,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1302,58 +1335,38 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>act_019_hhl_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_icon_flq5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -256,6 +252,10 @@
   </si>
   <si>
     <t>cpl_cjj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_020_hhl_</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -763,23 +763,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="11">
         <v>57</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="11">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="H2" s="11">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>28</v>
@@ -796,23 +796,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="11">
         <v>57</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="11">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="H3" s="11">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>28</v>
@@ -840,7 +840,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -889,7 +889,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="5">
         <v>300000</v>
@@ -909,7 +909,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="5">
         <v>60000</v>
@@ -950,7 +950,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2">
         <v>30000</v>
@@ -986,7 +986,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2">
         <v>12000</v>
@@ -1024,7 +1024,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2">
         <v>6000</v>
@@ -1062,7 +1062,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2">
         <v>1200</v>

--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>line|</t>
   </si>
@@ -255,7 +255,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>act_020_hhl_</t>
+    <t>act_021_hhl_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_021_hhl_</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -702,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -776,10 +780,10 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="11">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="H2" s="11">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>28</v>
@@ -802,17 +806,17 @@
         <v>57</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="11">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="H3" s="11">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>28</v>
@@ -837,10 +841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -885,193 +889,196 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="5">
-        <v>300000</v>
-      </c>
+      <c r="B2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>36</v>
-      </c>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="5">
-        <v>60000</v>
-      </c>
+      <c r="B3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2">
-        <v>42000</v>
+        <v>6000</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="5">
         <v>0</v>
       </c>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="5">
         <v>0</v>
       </c>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="5">
         <v>0</v>
       </c>
-      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
-        <v>6000</v>
+        <v>42000</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="19" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="B10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5">
+        <v>60000</v>
+      </c>
       <c r="G10" s="5">
         <v>0</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="19" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1200</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="B11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5">
+        <v>300000</v>
+      </c>
       <c r="G11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
@@ -1144,9 +1151,6 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>

--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>line|</t>
   </si>
@@ -107,14 +107,6 @@
   </si>
   <si>
     <t>condiy_key|</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50万小游戏币</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -158,14 +150,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>pay_icon_gold7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_prop_exchange_v5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -174,40 +158,48 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_yxb_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_yxb_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_prop_exchange_v3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5万福利券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万福利券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000福利券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000福利券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000福利券</t>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2元话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50万小游戏币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10元话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20元话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50元话费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100元话费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>2</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -218,48 +210,73 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00福利券</t>
+      <t>00元话费</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_flq5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_cjj</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_021_hhl_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_021_hhl_</t>
+    <t>ty_icon_jb_15y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com_award_icon_hf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_022_hhl_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -706,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -767,26 +784,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C2" s="11">
         <v>57</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="11">
-        <v>1638835200</v>
+        <v>1641859200</v>
       </c>
       <c r="H2" s="11">
-        <v>1639411199</v>
+        <v>1643039999</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>12</v>
@@ -800,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C3" s="11">
         <v>57</v>
@@ -813,16 +830,16 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="11">
-        <v>1638835200</v>
+        <v>1641859200</v>
       </c>
       <c r="H3" s="11">
-        <v>1639411199</v>
+        <v>1643039999</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>13</v>
@@ -843,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -890,13 +907,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1200</v>
+        <v>45</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10</v>
       </c>
       <c r="E2" s="2"/>
       <c r="G2" s="5">
@@ -909,13 +926,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="5">
@@ -928,13 +945,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="5">
@@ -947,13 +964,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="5">
@@ -966,13 +983,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="5">
@@ -985,13 +1002,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="5">
@@ -1003,13 +1020,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="5">
@@ -1021,40 +1038,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2">
-        <v>42000</v>
+        <v>30000</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="5">
-        <v>60000</v>
+        <v>47</v>
+      </c>
+      <c r="D10" s="2">
+        <v>42000</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1062,23 +1076,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D11" s="5">
-        <v>300000</v>
+        <v>60000</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="5">
+        <v>300000</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
@@ -1288,16 +1319,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1307,15 +1328,24 @@
 </allowEditUser>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1330,17 +1360,18 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1352,13 +1383,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1370,7 +1401,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_Release/act_hhl_ty_config.xlsx
+++ b/config_Release/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>line|</t>
   </si>
@@ -174,52 +174,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>50万小游戏币</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00元话费</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_15y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
+    <t>ty_icon_yxb_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_023_hhl_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200福利券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000福利券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000福利券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000福利券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万福利券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5万福利券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -227,56 +246,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_hf2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hf100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>com_award_icon_hf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_yxb_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_yxb_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_022_hhl_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11</t>
+    <t>pay_icon_gold7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -723,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -790,20 +760,20 @@
         <v>57</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="11">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="H2" s="11">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>12</v>
@@ -823,20 +793,20 @@
         <v>57</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="11">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="H3" s="11">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>31</v>
@@ -860,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -910,7 +880,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D2" s="5">
         <v>10</v>
@@ -926,10 +896,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2">
         <v>1200</v>
@@ -945,10 +915,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="D4" s="2">
         <v>3000</v>
@@ -964,10 +934,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
         <v>6000</v>
@@ -986,7 +956,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2">
         <v>9000</v>
@@ -1002,10 +972,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2">
         <v>12000</v>
@@ -1023,7 +993,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2">
         <v>24000</v>
@@ -1038,7 +1008,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>51</v>
@@ -1059,7 +1029,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2">
         <v>42000</v>
@@ -1076,7 +1046,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>52</v>
@@ -1096,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>53</v>
@@ -1319,6 +1289,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1328,24 +1308,15 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1360,18 +1331,17 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1383,13 +1353,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1401,7 +1371,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>